--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315789.981928451</v>
+        <v>1322896.945935924</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6119608.051202892</v>
+        <v>6119608.051202891</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>53.51252900994975</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.88180868221617</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.170977004479174</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>62.4162677022923</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>186.9919489137622</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>51.12024601807693</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>92.5098335530417</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1391,7 +1391,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,7 +1625,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1701,13 +1701,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>55.02845447133238</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>220.8837963815378</v>
-      </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>99.13012673870388</v>
       </c>
       <c r="E21" t="n">
-        <v>142.3089339722578</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,67 +2239,67 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>110.5330953175585</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>174.6530184069498</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.162665399307</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>24.83965997025667</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,22 +2682,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,58 +2710,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,62 +2792,62 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>89.93914640865493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>83.7598519033036</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>9.234466016111892</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>92.40361448301439</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,58 +3278,58 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>46.77311179206508</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>145.5147652547678</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>146.2327036023024</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>36.43923176655766</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,37 +3676,37 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>32.53272969201337</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>218.7207027570939</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4056,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>58.11452707591214</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>72.39544442095786</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.86136179523773</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>85.86136179523773</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>85.86136179523773</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>85.86136179523773</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>31.80830218922787</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4340,40 +4340,40 @@
         <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.86136179523773</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
         <v>5.035134973581694</v>
@@ -4410,16 +4410,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4431,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.1943137916113</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4474,19 +4474,19 @@
         <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4507,13 +4507,13 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
+        <v>136.0643627756056</v>
+      </c>
+      <c r="R4" t="n">
+        <v>136.0643627756056</v>
+      </c>
+      <c r="S4" t="n">
         <v>82.01130316959576</v>
-      </c>
-      <c r="R4" t="n">
-        <v>27.95824356358591</v>
-      </c>
-      <c r="S4" t="n">
-        <v>27.95824356358591</v>
       </c>
       <c r="T4" t="n">
         <v>27.95824356358591</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>82.32787816303323</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
         <v>817.1412885554689</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4689,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4911,22 +4911,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>435.6470747334852</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5124,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5154,16 +5154,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>878.2251822441752</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C15" t="n">
-        <v>703.7721529630483</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D15" t="n">
-        <v>554.837743301797</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E15" t="n">
-        <v>395.6002882963414</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>249.0657303232264</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>75.61957320878872</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>75.61957320878872</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>75.61957320878872</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,7 +5598,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="19">
@@ -5689,22 +5689,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>562.4161926976942</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="C21" t="n">
-        <v>562.4161926976942</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="D21" t="n">
-        <v>562.4161926976942</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5865,16 @@
         <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X21" t="n">
-        <v>562.4161926976942</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="Y21" t="n">
-        <v>562.4161926976942</v>
+        <v>119.4125842604187</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.3181732824481</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>279.865144001321</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>130.9307343400698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>130.9307343400698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="X24" t="n">
-        <v>454.3181732824481</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y24" t="n">
-        <v>454.3181732824481</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="C27" t="n">
-        <v>521.2549444941228</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="D27" t="n">
-        <v>521.2549444941228</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>45.12584138952033</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,10 +6309,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>191.6603993626354</v>
       </c>
     </row>
     <row r="28">
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="C30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="D30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="E30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>104.6411867764364</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>104.6411867764364</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6549,16 +6549,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,16 +6576,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.6601697108322</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C33" t="n">
-        <v>328.2071404297052</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>203.6718892321191</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>203.6718892321191</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X33" t="n">
-        <v>878.6358054958541</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.8755067309003</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158.0119685275972</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="C36" t="n">
-        <v>158.0119685275972</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="D36" t="n">
-        <v>158.0119685275972</v>
+        <v>270.949607964995</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>270.949607964995</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>270.949607964995</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>817.0725441421839</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>573.6237674980839</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>365.7722672925511</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y36" t="n">
-        <v>158.0119685275972</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V38" t="n">
-        <v>477.1596022224361</v>
-      </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>343.4227147053767</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C39" t="n">
-        <v>168.9696854242497</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>816.3473538921489</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>816.3473538921489</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.123735628538</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="W39" t="n">
-        <v>927.2498506959315</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="X39" t="n">
-        <v>719.3983504903987</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y39" t="n">
-        <v>511.6380517254448</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.9965798960495</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7594,25 +7594,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>307.1033079837604</v>
+        <v>486.820788837921</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6502787026334</v>
+        <v>486.820788837921</v>
       </c>
       <c r="D45" t="n">
-        <v>132.6502787026334</v>
+        <v>337.8863791766698</v>
       </c>
       <c r="E45" t="n">
-        <v>132.6502787026334</v>
+        <v>337.8863791766698</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>191.3518212035547</v>
       </c>
       <c r="G45" t="n">
         <v>132.6502787026334</v>
@@ -7734,43 +7734,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>890.9304439743152</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>683.0789437687823</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>475.3186450038284</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7834,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7988,13 +7988,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,19 +8772,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
-        <v>303.774711870172</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9246,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10905,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>48.16969849197108</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,7 +23513,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23589,13 +23589,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,7 +23625,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>115.1910751610252</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>102.6166259840686</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23871,7 +23871,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,13 +23941,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>118.5910057342293</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24051,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>48.31493882593487</v>
       </c>
       <c r="E21" t="n">
-        <v>15.33614648314318</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24105,13 +24105,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>34.53611707582542</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>25.51171028787184</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,28 +24443,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>145.4824150560939</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>112.503857192954</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,10 +24680,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>284.2675141160747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,10 +24698,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,7 +24734,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,16 +24768,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>55.13006598472894</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.636780948111479</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>242.1111868917246</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>19.83182975348207</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>121.2058486888432</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25129,13 +25129,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>90.57040537114555</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>87.28582189465749</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>25.4504675015354</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>215.2557513943619</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25679,22 +25679,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,19 +25716,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>112.5364827013705</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25755,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>7.220679323880944</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,16 +25910,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25944,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>79.22899008729848</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>179.2995387399617</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26074,10 +26074,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005571</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="F2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="G2" t="n">
-        <v>224316.9079172987</v>
-      </c>
       <c r="H2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="I2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="J2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
         <v>224316.9079172987</v>
@@ -26347,10 +26347,10 @@
         <v>224316.9079172987</v>
       </c>
       <c r="N2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="P2" t="n">
         <v>224316.9079172987</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360814.6373507841</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="P4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138574.1162844011</v>
+        <v>139214.3891152962</v>
       </c>
       <c r="C6" t="n">
-        <v>123504.8218135866</v>
+        <v>124382.650717606</v>
       </c>
       <c r="D6" t="n">
-        <v>184081.1440002547</v>
+        <v>184958.9729042742</v>
       </c>
       <c r="E6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="F6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976409</v>
       </c>
       <c r="G6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="H6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="I6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="J6" t="n">
-        <v>152766.7527533422</v>
+        <v>153644.5816573615</v>
       </c>
       <c r="K6" t="n">
-        <v>118511.0319599889</v>
+        <v>119388.8608640083</v>
       </c>
       <c r="L6" t="n">
-        <v>166767.9848936216</v>
+        <v>167645.8137976409</v>
       </c>
       <c r="M6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="N6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="O6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976408</v>
       </c>
       <c r="P6" t="n">
-        <v>166767.9848936215</v>
+        <v>167645.8137976409</v>
       </c>
     </row>
   </sheetData>
@@ -27391,7 +27391,7 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>378.1596011777161</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>96.35658893119992</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.3561299738374</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>179.5541378552689</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>205.3077389352137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>121.9805791925692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>352.8864698128427</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>160.3938216443319</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.8840968279493</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>174.8211360628979</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>113.2631516504358</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>123.387056250247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,19 +38102,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1322896.945935924</v>
+        <v>1325220.617749792</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +673,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>37.14313633741891</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,14 +703,14 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.88180868221617</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479174</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,28 +861,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>178.157313031983</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>114.0512913036181</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1184,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>118.0728405592477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>92.5098335530417</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,53 +1381,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>64.33804635206413</v>
       </c>
       <c r="I12" t="n">
-        <v>62.88143347497287</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.88143347497289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>55.02845447133238</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1977,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>99.13012673870388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>174.6530184069498</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>24.83965997025667</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>83.7598519033036</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>10.40493801491967</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2060159584285</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>92.40361448301439</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46.77311179206508</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>146.2327036023024</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>218.7207027570939</v>
+        <v>142.0523914963076</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3974,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.16010504236965</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>58.11452707591214</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="F2" t="n">
-        <v>41.79932185354235</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,46 +4336,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O2" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4413,46 +4415,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="T3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="U3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="V3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="W3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="X3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="T3" t="n">
-        <v>51.89093722176946</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5.035134973581694</v>
-      </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4507,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>27.95824356358591</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>27.95824356358591</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.95824356358591</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="F8" t="n">
-        <v>359.156365563381</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>482.2773291604919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0945550188371</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>132.6502787026334</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C12" t="n">
-        <v>789.6041262295092</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D12" t="n">
-        <v>640.669716568258</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E12" t="n">
-        <v>481.4322615628025</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8977035896875</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G12" t="n">
-        <v>196.166878172303</v>
+        <v>84.26906871835831</v>
       </c>
       <c r="H12" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,10 +5123,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
         <v>234.810827406191</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5236,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.5405560409666</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>726.0875267598396</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5545,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.61957320878872</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>75.61957320878872</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>75.61957320878872</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W18" t="n">
-        <v>243.8349102288568</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>243.8349102288568</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>243.8349102288568</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5689,31 +5691,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
         <v>506.1786963984129</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.4125842604187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>119.4125842604187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W21" t="n">
-        <v>327.2640844659515</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>119.4125842604187</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.4125842604187</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5932,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.810259228364</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>544.1911885564859</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X24" t="n">
-        <v>544.1911885564859</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y24" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.6603993626354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6603993626354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6603993626354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>191.6603993626354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>45.12584138952033</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>399.5118995681682</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>191.6603993626354</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
-        <v>191.6603993626354</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>104.6411867764364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>104.6411867764364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>203.6718892321191</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>203.6718892321191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>518.4217842253022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>518.4217842253022</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.4217842253022</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>419.8840176262463</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>419.8840176262463</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D36" t="n">
-        <v>270.949607964995</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E36" t="n">
-        <v>270.949607964995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>270.949607964995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>419.8840176262463</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>419.8840176262463</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7120,10 +7122,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>816.3473538921489</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>816.3473538921489</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>588.123735628538</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>352.9716273967953</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>352.9716273967953</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>352.9716273967953</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>352.9716273967953</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>569.7098081763618</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="V42" t="n">
-        <v>569.7098081763618</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="W42" t="n">
-        <v>569.7098081763618</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7670,13 +7672,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
         <v>749.627473042513</v>
@@ -7685,7 +7687,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
         <v>506.1786963984129</v>
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>486.820788837921</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>486.820788837921</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D45" t="n">
-        <v>337.8863791766698</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E45" t="n">
-        <v>337.8863791766698</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>191.3518212035547</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7734,43 +7736,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>655.0361258579891</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7836,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7982,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9494,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>47.89739788443234</v>
       </c>
       <c r="I12" t="n">
-        <v>26.5151993764422</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>102.6166259840686</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23865,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.4973048242362</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>48.31493882593487</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>25.51171028787184</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>112.503857192954</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>180.9337498050905</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>5.636780948111479</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>195.2777577623847</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>19.83182975348207</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25199,28 +25201,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>90.57040537114555</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25360,13 +25362,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25451,13 +25453,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>62.60403143131535</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>25.4504675015354</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>7.220679323880944</v>
+        <v>83.88899058466725</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25910,25 +25912,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>141.5483939459461</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>79.22899008729848</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005571</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005571</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005571</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005568</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="F2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="F2" t="n">
-        <v>224316.9079172987</v>
-      </c>
-      <c r="G2" t="n">
-        <v>224316.9079172986</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
@@ -26341,19 +26343,19 @@
         <v>224316.9079172987</v>
       </c>
       <c r="L2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="P2" t="n">
         <v>224316.9079172986</v>
-      </c>
-      <c r="P2" t="n">
-        <v>224316.9079172987</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26427,7 +26429,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
         <v>42017.42535589615</v>
@@ -26442,7 +26444,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589615</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139214.3891152962</v>
+        <v>139214.3891152966</v>
       </c>
       <c r="C6" t="n">
-        <v>124382.650717606</v>
+        <v>124382.6507176058</v>
       </c>
       <c r="D6" t="n">
-        <v>184958.9729042742</v>
+        <v>184958.9729042743</v>
       </c>
       <c r="E6" t="n">
         <v>167645.8137976408</v>
       </c>
       <c r="F6" t="n">
+        <v>167645.8137976408</v>
+      </c>
+      <c r="G6" t="n">
         <v>167645.8137976409</v>
-      </c>
-      <c r="G6" t="n">
-        <v>167645.8137976408</v>
       </c>
       <c r="H6" t="n">
         <v>167645.8137976408</v>
@@ -26549,7 +26551,7 @@
         <v>119388.8608640083</v>
       </c>
       <c r="L6" t="n">
-        <v>167645.8137976409</v>
+        <v>167645.8137976407</v>
       </c>
       <c r="M6" t="n">
         <v>167645.8137976408</v>
@@ -26561,7 +26563,7 @@
         <v>167645.8137976408</v>
       </c>
       <c r="P6" t="n">
-        <v>167645.8137976409</v>
+        <v>167645.8137976408</v>
       </c>
     </row>
   </sheetData>
@@ -27391,16 +27393,16 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1596011777161</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.8704497879187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>62.72157442133235</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>30.86275655426235</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,7 +27681,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>123.8600405104216</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>301.251446211517</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>251.6582601192213</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>113.2631516504358</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28053,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34702,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37151,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325220.617749792</v>
+        <v>1256369.321308355</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6119608.051202891</v>
+        <v>6119608.051202892</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>19.88180868221617</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>23.440468830362</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.95466700954542</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>178.157313031983</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="X8" t="n">
-        <v>118.0728405592477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.5744027380783</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>64.33804635206413</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>162.6080338315131</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,11 +1852,11 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>9.234466016111835</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U18" t="n">
-        <v>27.44407725673862</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>203.3816115706753</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>83.3106286157618</v>
       </c>
     </row>
     <row r="22">
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.53524424398009</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="25">
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>89.23479522590742</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.74894597221386</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>123.2251503402943</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.40493801491967</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.2060159584285</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>57.37326269883825</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>94.41048699370604</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.67263725582607</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>133.4269036908112</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,20 +3502,20 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8410341333234</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="U42" t="n">
-        <v>142.0523914963076</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>222.3396163656985</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.16010504236965</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="C2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024826</v>
       </c>
       <c r="L2" t="n">
         <v>108.0953086000985</v>
@@ -4342,40 +4342,40 @@
         <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="W2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="X2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955222</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024826</v>
+      </c>
+      <c r="N3" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
-      </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>4.281002320795981</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4509,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
         <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.6514970160482</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>784.1002736601483</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>784.1002736601483</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>784.1002736601483</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>784.1002736601483</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>540.6514970160482</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>540.6514970160482</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>280.2813516533643</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.7467936802493</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4922,13 +4922,13 @@
         <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.9998941357428</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26906871835831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,13 +5123,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>391.2152311558108</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>527.5764290961142</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
         <v>19.28114311021272</v>
@@ -5360,16 +5360,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
         <v>964.0571555106362</v>
@@ -5396,13 +5396,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>336.430889791532</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
         <v>19.28114311021272</v>
@@ -5475,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X17" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5606,13 +5606,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U18" t="n">
-        <v>560.7319261617492</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>560.7319261617492</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>560.7319261617492</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>560.7319261617492</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5934,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>243.8349102288568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>35.98341002332393</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6168,10 +6168,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>873.9209987167903</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>873.9209987167903</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>873.9209987167903</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X27" t="n">
-        <v>44.28007843568128</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="28">
@@ -6402,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>432.4774131586771</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>189.028636514577</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X30" t="n">
-        <v>189.028636514577</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6645,13 +6645,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>804.9348354586348</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>804.9348354586348</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>804.9348354586348</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>804.9348354586348</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="34">
@@ -6879,16 +6879,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C36" t="n">
-        <v>84.60703932821886</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>84.60703932821886</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>829.2825053178976</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>594.130397086155</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>594.130397086155</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.432186667424</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>104.979157386297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>279.432186667424</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.432186667424</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7359,22 +7359,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8760884571613</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U42" t="n">
-        <v>820.5698913729518</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V42" t="n">
-        <v>820.5698913729518</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W42" t="n">
-        <v>820.5698913729518</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X42" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y42" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7739,10 +7739,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7839,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065407</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8075,7 +8075,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>47.89739788443234</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,25 +23542,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>43.16495137196441</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>360.4966346623572</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4973048242362</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>135.4421949581581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>29.41897557874998</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.3720671615426</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686752</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.1474515333243</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="25">
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24460,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>199.623498229859</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.92303892673571</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.9337498050905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24651,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>318.0089460004916</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>128.4698328206252</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.2777577623847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24964,28 +24964,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.32716769143885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>114.3099084049996</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25119,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>92.97244319957487</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>92.51447839016362</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>209.6141974444038</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>62.60403143131535</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,19 +25675,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25709,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25760,16 +25760,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>117.1328366372799</v>
       </c>
       <c r="U42" t="n">
-        <v>83.88899058466725</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,28 +25909,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.5483939459461</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005568</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399083.3388005571</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005571</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>399083.338800557</v>
+        <v>399083.3388005571</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399083.3388005568</v>
+        <v>399083.338800557</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26325,13 +26325,13 @@
         <v>224316.9079172986</v>
       </c>
       <c r="F2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="G2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="H2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="I2" t="n">
         <v>224316.9079172986</v>
@@ -26340,22 +26340,22 @@
         <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="L2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="L2" t="n">
-        <v>224316.9079172986</v>
-      </c>
       <c r="M2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="P2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="P2" t="n">
-        <v>224316.9079172986</v>
       </c>
     </row>
     <row r="3">
@@ -26441,10 +26441,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589615</v>
@@ -26456,7 +26456,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
         <v>42017.42535589615</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139214.3891152966</v>
+        <v>139214.3891152963</v>
       </c>
       <c r="C6" t="n">
-        <v>124382.6507176058</v>
+        <v>124382.650717606</v>
       </c>
       <c r="D6" t="n">
         <v>184958.9729042743</v>
       </c>
       <c r="E6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776003</v>
       </c>
       <c r="F6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776004</v>
       </c>
       <c r="G6" t="n">
-        <v>167645.8137976409</v>
+        <v>155427.8031776004</v>
       </c>
       <c r="H6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776004</v>
       </c>
       <c r="I6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776003</v>
       </c>
       <c r="J6" t="n">
-        <v>153644.5816573615</v>
+        <v>141426.5710373211</v>
       </c>
       <c r="K6" t="n">
-        <v>119388.8608640083</v>
+        <v>107170.8502439677</v>
       </c>
       <c r="L6" t="n">
-        <v>167645.8137976407</v>
+        <v>155427.8031776004</v>
       </c>
       <c r="M6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776004</v>
       </c>
       <c r="N6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776003</v>
       </c>
       <c r="O6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776003</v>
       </c>
       <c r="P6" t="n">
-        <v>167645.8137976408</v>
+        <v>155427.8031776004</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>381.682198758905</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>307.8704497879187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5112449034372</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269337</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,10 +27514,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>185.6667515974615</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133235</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>228.697174493466</v>
       </c>
       <c r="W4" t="n">
         <v>233.0104693266412</v>
@@ -27618,28 +27618,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>288.9757030627164</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>30.86275655426235</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.8600405104216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.8728004813312</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>268.4108542424576</v>
       </c>
       <c r="X8" t="n">
-        <v>251.6582601192213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,16 +27937,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>24.7691144251323</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28055,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35184,10 +35184,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
